--- a/biology/Origine et évolution du vivant/Extinction_du_Cénomanien-Turonien/Extinction_du_Cénomanien-Turonien.xlsx
+++ b/biology/Origine et évolution du vivant/Extinction_du_Cénomanien-Turonien/Extinction_du_Cénomanien-Turonien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Extinction_du_C%C3%A9nomanien-Turonien</t>
+          <t>Extinction_du_Cénomanien-Turonien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'extinction du Cénomanien-Turonien, également connu sous le nom d'événement anoxique océanique Cénomanien-Turonien ou événement de Bonarelli[1], est l'un des deux événements d'extinction anoxique de la période du Crétacé (l'autre étant l'événement de Selli, qui s'est déroulé durant l'Aptien[2]).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'extinction du Cénomanien-Turonien, également connu sous le nom d'événement anoxique océanique Cénomanien-Turonien ou événement de Bonarelli, est l'un des deux événements d'extinction anoxique de la période du Crétacé (l'autre étant l'événement de Selli, qui s'est déroulé durant l'Aptien).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Extinction_du_C%C3%A9nomanien-Turonien</t>
+          <t>Extinction_du_Cénomanien-Turonien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selby et al. (2009) en conclut que l'évènement s'était produit à environ 91,5±8,6 Ma[3], bien que les estimations publiées par Leckie et al. (2002) sont donnés vers 93-94 Ma[4]. La limite Cénomanien-Turonien a été affinée en 2012 à 93,9 ± 0,15 Ma[5]. Il y a eu une grande perturbation du carbone pendant cette période. Cependant, outre la perturbation du cycle du carbone, il y a également eu de grandes perturbations dans les cycles de l'oxygène et du soufre de l'océan[6],[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selby et al. (2009) en conclut que l'évènement s'était produit à environ 91,5±8,6 Ma, bien que les estimations publiées par Leckie et al. (2002) sont donnés vers 93-94 Ma. La limite Cénomanien-Turonien a été affinée en 2012 à 93,9 ± 0,15 Ma. Il y a eu une grande perturbation du carbone pendant cette période. Cependant, outre la perturbation du cycle du carbone, il y a également eu de grandes perturbations dans les cycles de l'oxygène et du soufre de l'océan,.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Extinction_du_C%C3%A9nomanien-Turonien</t>
+          <t>Extinction_du_Cénomanien-Turonien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Positionnement et conséquences</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette extinction anoxique sépare les deux premiers étages du Crétacé supérieur, c'est-à-dire le Cénomanien et le Turonien.
-Les derniers ichthyosaures et la presque-totalité des pliosaures ont disparu au cours de cette extinction. Seuls trois taxons de pliosaures ont survécu et ont pu côtoyer des mosasaures : Megacephalosaurus, Brachauchenius et Polyptychodon[8],[9],[10],[11].
+Les derniers ichthyosaures et la presque-totalité des pliosaures ont disparu au cours de cette extinction. Seuls trois taxons de pliosaures ont survécu et ont pu côtoyer des mosasaures : Megacephalosaurus, Brachauchenius et Polyptychodon.
 </t>
         </is>
       </c>
